--- a/data/trans_camb/P19C03-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2483894913408586</v>
+        <v>0.3142534600312976</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.75061488833369</v>
+        <v>-10.4127293689009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.6622885151271</v>
+        <v>-18.01508684802386</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.01559183716237</v>
+        <v>-12.90214785160219</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-19.6620009710651</v>
+        <v>-19.74569015920874</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-22.23259403817582</v>
+        <v>-22.08804190185592</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.326389622934593</v>
+        <v>-3.905252571510857</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.64627796946442</v>
+        <v>-13.48046274728436</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.22500471844665</v>
+        <v>-17.351567811106</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.83998679128869</v>
+        <v>13.79439242179413</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.825797087993284</v>
+        <v>1.737337093058939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.846982691992471</v>
+        <v>-6.119782331770894</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.699718952243519</v>
+        <v>3.299737943805571</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.4927965058065</v>
+        <v>-3.840949261222812</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-8.883114530730376</v>
+        <v>-9.163844892758361</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.273265444633267</v>
+        <v>7.042677643811887</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.775147251900552</v>
+        <v>-2.604690936987871</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-8.502014607263735</v>
+        <v>-8.854677993310551</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2550470289307579</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.4277981185760339</v>
+        <v>-0.4277981185760338</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.009457855613927873</v>
+        <v>0.00912780397785533</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3700832511019456</v>
+        <v>-0.3285108906397485</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.545184243554543</v>
+        <v>-0.551681985887994</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.361782732161386</v>
+        <v>-0.3574947099559502</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5221871026553339</v>
+        <v>-0.5306752400588721</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5871079415662129</v>
+        <v>-0.5762829631590527</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1013515733742653</v>
+        <v>-0.1207488814810669</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3842903644889694</v>
+        <v>-0.3974868191317365</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.520805882557664</v>
+        <v>-0.5190395757204542</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5405195809174296</v>
+        <v>0.5388650800904839</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07401270180539733</v>
+        <v>0.07268131781197944</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2161005401304454</v>
+        <v>-0.2364009685345834</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1021372943344963</v>
+        <v>0.1146304470595514</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1573087567599066</v>
+        <v>-0.1249833402073759</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3153460109315118</v>
+        <v>-0.3188610641033507</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2590085376022458</v>
+        <v>0.2546438507008796</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1008110853886449</v>
+        <v>-0.09445008436180102</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3086757689826976</v>
+        <v>-0.3199047885743192</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.90988771559889</v>
+        <v>-13.66396629928047</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.6426347822234</v>
+        <v>-14.84038226350438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-25.23617851319219</v>
+        <v>-24.3396228351921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-14.5713529400873</v>
+        <v>-14.98537547393596</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-16.3152969230082</v>
+        <v>-15.50015803999265</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-25.6389872783057</v>
+        <v>-26.29584174461678</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-12.14084100877374</v>
+        <v>-12.01338121854531</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-13.70056053602197</v>
+        <v>-13.19361355455049</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-23.9045973865618</v>
+        <v>-23.90532307883565</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.961579387036068</v>
+        <v>1.583238893999521</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9032129623374034</v>
+        <v>0.257766560868146</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-11.35683217268409</v>
+        <v>-11.07809272485803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8780801230903166</v>
+        <v>0.2674576347160199</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.636331095932126</v>
+        <v>-0.6695409589986322</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-13.09353211182759</v>
+        <v>-13.63388141698766</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.368174395373445</v>
+        <v>-1.389963631581832</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.008517054677773</v>
+        <v>-2.967587413318554</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-14.7632177506455</v>
+        <v>-14.5801223352399</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3483913206473218</v>
+        <v>-0.3576723228804419</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3878791255271913</v>
+        <v>-0.4051052523396576</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6604229985826178</v>
+        <v>-0.6540660145793514</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3606481580269242</v>
+        <v>-0.3641578464604536</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.40416849368533</v>
+        <v>-0.3767716328701876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.621399276949643</v>
+        <v>-0.6270872117379681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3138725216908243</v>
+        <v>-0.3151960184279706</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3528667549827082</v>
+        <v>-0.3436351229632369</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.617702553559954</v>
+        <v>-0.6214829236117533</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06735634996449159</v>
+        <v>0.05396384132556914</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04424756014543558</v>
+        <v>0.0109495017869507</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3893134120330159</v>
+        <v>-0.37998647528515</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.02600981262953611</v>
+        <v>0.01330433698763699</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04627527086568825</v>
+        <v>-0.01512462861386005</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3985016745636182</v>
+        <v>-0.4084229031937563</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04421187411222566</v>
+        <v>-0.04402555433549588</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09441319417867364</v>
+        <v>-0.08984529689076051</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4537546713100153</v>
+        <v>-0.4435931040606118</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.11845871885039</v>
+        <v>-12.31237685092981</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.4694359465011</v>
+        <v>-12.33605036168</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.13739932156705</v>
+        <v>-18.82089114266221</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.14205767275855</v>
+        <v>-11.64443440800761</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-15.90614629244334</v>
+        <v>-17.63635527281578</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-23.78649613281748</v>
+        <v>-24.71748346986137</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-9.59943604449847</v>
+        <v>-9.933816841493867</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.21783172501747</v>
+        <v>-11.34561459481444</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-18.15889683739583</v>
+        <v>-18.2002401486561</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1614108045469096</v>
+        <v>0.3628550746883976</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.200382574592523</v>
+        <v>1.131635471921957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.032627894934199</v>
+        <v>-5.996937311889234</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.752313998038741</v>
+        <v>8.394899967306303</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.779238271614527</v>
+        <v>4.568724002913438</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.104113940863691</v>
+        <v>-5.500909941616487</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5628287756674429</v>
+        <v>0.7455201913275554</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.117038055418775</v>
+        <v>-0.375556264828024</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-7.891487073528751</v>
+        <v>-8.003254793544802</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1570314317337985</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.34694149422809</v>
+        <v>-0.3469414942280901</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.05620767336015423</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3185337982405174</v>
+        <v>-0.321647197194556</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3201797304935546</v>
+        <v>-0.3241327587608935</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4733992936115414</v>
+        <v>-0.4930681882206968</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2984091191391689</v>
+        <v>-0.3122021327875046</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4362508676743188</v>
+        <v>-0.4591852140024045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6376551391956057</v>
+        <v>-0.6325561208196245</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2614103873486869</v>
+        <v>-0.2730200404242129</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.297993850055409</v>
+        <v>-0.3061204863809683</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4867845304760428</v>
+        <v>-0.4834895234531748</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.002599363887556655</v>
+        <v>0.008665822974813138</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03624568406632417</v>
+        <v>0.02905322936382609</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1847212176478012</v>
+        <v>-0.1916482621860169</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3098406776336236</v>
+        <v>0.3395944149294746</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2346637894593111</v>
+        <v>0.1772367093801931</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1913872996678713</v>
+        <v>-0.1872092933634431</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01756074487674432</v>
+        <v>0.02083542229337535</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.005228169214152199</v>
+        <v>-0.01261259138118442</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2468064688078939</v>
+        <v>-0.2502787213331112</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-2.138725902843563</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-12.2098652793552</v>
+        <v>-12.20986527935519</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.138477318796256</v>
+        <v>-6.692140341583571</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.111457368026079</v>
+        <v>-6.641387540955095</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.61262620899043</v>
+        <v>-14.73538981565279</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.409694617028146</v>
+        <v>-8.194908517037822</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.04899050647502</v>
+        <v>-7.950694731398826</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-18.86950264945247</v>
+        <v>-18.7402591940601</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.713721906520013</v>
+        <v>-6.378251161783534</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.502454367132088</v>
+        <v>-5.584711734508867</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-15.29471366776649</v>
+        <v>-15.28106555641428</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.181600511419528</v>
+        <v>1.942510891025514</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.947573411253269</v>
+        <v>2.288519726069796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.281664518526141</v>
+        <v>-6.502332977431116</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.193696852222654</v>
+        <v>2.421947983842733</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.796547867274809</v>
+        <v>2.661642229049261</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-9.609514884917141</v>
+        <v>-9.188984872337864</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9730413891229681</v>
+        <v>0.8805966641102746</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.072116375654125</v>
+        <v>1.306111837857847</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-9.198206847346695</v>
+        <v>-8.893535700449277</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.06463188002972542</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3689797495159046</v>
+        <v>-0.3689797495159045</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1873026702417414</v>
+        <v>-0.1957430028884529</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1831893042066742</v>
+        <v>-0.2007050000993275</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4546932301336623</v>
+        <v>-0.4468720438545732</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.218596272165648</v>
+        <v>-0.2114276837390535</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2083123006473541</v>
+        <v>-0.2062016097654457</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4863350136233635</v>
+        <v>-0.4831016854602455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1680524128555243</v>
+        <v>-0.1811627329455613</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1577724436706215</v>
+        <v>-0.1606934018373505</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4385923778328494</v>
+        <v>-0.4365112206556681</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07409400078486728</v>
+        <v>0.06568875068694179</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1042432887206508</v>
+        <v>0.07864841731889954</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2441810984592679</v>
+        <v>-0.2257788648006167</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.06791272739267792</v>
+        <v>0.07435427153772189</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08617639803106616</v>
+        <v>0.08509124975375348</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2947355638059971</v>
+        <v>-0.2858086007812353</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02962348936305281</v>
+        <v>0.03057746321589988</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.03473481659218353</v>
+        <v>0.04056324270221058</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2950044942210076</v>
+        <v>-0.289438489738904</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-5.874793805901113</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-14.53125218266744</v>
+        <v>-14.53125218266745</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.71204593958807</v>
+        <v>-12.93149659076967</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.27044678694416</v>
+        <v>-13.99600944317388</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-20.81089379182083</v>
+        <v>-21.07642144978365</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-11.95456949023558</v>
+        <v>-11.85582278290695</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.30256397265059</v>
+        <v>-11.45031391439403</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-20.64742245090539</v>
+        <v>-19.79264658795597</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-10.32159509536231</v>
+        <v>-10.48378826279781</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.40304001916409</v>
+        <v>-10.17193228668098</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-18.6361108064697</v>
+        <v>-18.82895865202673</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.395625767556083</v>
+        <v>2.333947292077738</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.317113189312835</v>
+        <v>1.661394805314178</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.774711221874179</v>
+        <v>-6.389555090571873</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.4575718747494864</v>
+        <v>-0.9688164418563275</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.526651969884017</v>
+        <v>0.1468171182817672</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-9.900592759393517</v>
+        <v>-9.435595275348179</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.700292688048</v>
+        <v>-1.294726999431987</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.380233459118623</v>
+        <v>-1.236609313050901</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-10.13704613875904</v>
+        <v>-10.49641519669999</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1934721196596625</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.4121259531317156</v>
+        <v>-0.4121259531317154</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1847558098562218</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1566105591265576</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4395650216236971</v>
+        <v>-0.439565021623697</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1751359144032478</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1735749481713687</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.4293361482641363</v>
+        <v>-0.4293361482641365</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3299219084153182</v>
+        <v>-0.3391502383499801</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3708034217023171</v>
+        <v>-0.3618118203982963</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5477830152626402</v>
+        <v>-0.5568425883145011</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3132651097939763</v>
+        <v>-0.3159018645662125</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3030063744702469</v>
+        <v>-0.3066628202808124</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5347592446664881</v>
+        <v>-0.5298249712163106</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2854222370996097</v>
+        <v>-0.28436983747786</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2860391756764569</v>
+        <v>-0.2828143134366172</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5079679620794125</v>
+        <v>-0.5126723909321568</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.07368911191233626</v>
+        <v>0.08126407456047123</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.05434529363558262</v>
+        <v>0.05948778128798084</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2208702851840447</v>
+        <v>-0.219939996004785</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.01355965066885859</v>
+        <v>-0.03156410000293251</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01676490334912243</v>
+        <v>0.004702462667013229</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3225807590378477</v>
+        <v>-0.3137999681997876</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.05414630661482502</v>
+        <v>-0.04229657279131864</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.04419435159945295</v>
+        <v>-0.04066511399646261</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3256270613481011</v>
+        <v>-0.3408401640062974</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.636615063083285</v>
+        <v>-5.914736251184231</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.68501679287155</v>
+        <v>-12.60956215218551</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-24.9084675624099</v>
+        <v>-24.12774971162204</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.225459131747621</v>
+        <v>-3.826098042011224</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.18500181031629</v>
+        <v>-11.22054073703871</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-15.74787454209148</v>
+        <v>-15.6760765623628</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.831233499748573</v>
+        <v>-3.240182587171323</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-9.652993103941455</v>
+        <v>-10.19102622873039</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-15.74276294314643</v>
+        <v>-15.9179204245771</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.28111261856383</v>
+        <v>11.7466500104941</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.634084613735961</v>
+        <v>4.404273173460052</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-3.460616386280251</v>
+        <v>-2.629998818017353</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.274625363271514</v>
+        <v>4.482920511459061</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.697066183985251</v>
+        <v>-3.237693721396274</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-8.324391305292558</v>
+        <v>-8.114683464208278</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.394120491977485</v>
+        <v>3.960145260884263</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.599539097675827</v>
+        <v>-2.842180427253572</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-8.523293463519694</v>
+        <v>-8.561851912288706</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.2615510738056939</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4450123438732008</v>
+        <v>-0.4450123438732007</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.02361243764103038</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1669451268171379</v>
+        <v>-0.171360075477168</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3524636176606915</v>
+        <v>-0.3649312792174315</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7385336250689765</v>
+        <v>-0.7292863562451074</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1460089058994123</v>
+        <v>-0.1339786945410638</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3914414692165476</v>
+        <v>-0.3865576295317321</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5437831317715618</v>
+        <v>-0.5472718380605498</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.09731142527597275</v>
+        <v>-0.1111802524844076</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3339251120421732</v>
+        <v>-0.348310898901987</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.550963807977789</v>
+        <v>-0.549195931941391</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4471294121360869</v>
+        <v>0.4605972422292214</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1798759203774475</v>
+        <v>0.1676351228626496</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.08353420096394308</v>
+        <v>-0.08691801429498042</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1723026832143827</v>
+        <v>0.18057606543638</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1163617825947202</v>
+        <v>-0.1222039440977903</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.3226886380336168</v>
+        <v>-0.3191650226205621</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.172889850581935</v>
+        <v>0.1541785943263714</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1011394075201175</v>
+        <v>-0.1075642416779366</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.3270847937480357</v>
+        <v>-0.3198681669221201</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.769396583514371</v>
+        <v>-4.467744132972657</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.81100315664448</v>
+        <v>-6.963340231961499</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-15.08238897257449</v>
+        <v>-15.29346861161355</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.729282484314336</v>
+        <v>-5.652163162719909</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-8.40555194562231</v>
+        <v>-8.489069145236218</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-16.04697367985917</v>
+        <v>-16.07430322998558</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.208334873101975</v>
+        <v>-4.443971850098716</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.924462059591892</v>
+        <v>-7.062305023955123</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-15.03146479466552</v>
+        <v>-14.89913090566978</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.690986665631045</v>
+        <v>0.7898480925294292</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.571377796082151</v>
+        <v>-1.89524094142935</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-10.25366111933804</v>
+        <v>-10.44531559469424</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.8349909648447124</v>
+        <v>-0.7378174870290358</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-3.544492696508557</v>
+        <v>-3.390431198837098</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-11.78207010586628</v>
+        <v>-12.05705339850388</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.8382775491616435</v>
+        <v>-0.8214469785664029</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.370086025665894</v>
+        <v>-3.372854504416325</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-11.86021842436898</v>
+        <v>-11.7479091599189</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.1381244541119567</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4029508558153282</v>
+        <v>-0.4029508558153281</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.09586588921989331</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1435724973462985</v>
+        <v>-0.1342245832702512</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2071191030705088</v>
+        <v>-0.2096363010482614</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4591743175946754</v>
+        <v>-0.4577424695742441</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.171015539917696</v>
+        <v>-0.1686859518959939</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2515376717715872</v>
+        <v>-0.2522144931804722</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4785597413172016</v>
+        <v>-0.4778989586891155</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1292068386518106</v>
+        <v>-0.1342907810386741</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2086791037447483</v>
+        <v>-0.2136067982738581</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4525071166811344</v>
+        <v>-0.4528749165269008</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.02241830319225108</v>
+        <v>0.0267817269156973</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.05149517121907241</v>
+        <v>-0.05944062443221299</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.3376006089612222</v>
+        <v>-0.3404964304856684</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.02649591771617896</v>
+        <v>-0.02501001542061449</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1140948744811149</v>
+        <v>-0.1107512655861698</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3802955276239589</v>
+        <v>-0.3863235754348936</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.02696290787675265</v>
+        <v>-0.02679254612539636</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1071399979848392</v>
+        <v>-0.1072242585636459</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.3777103781295123</v>
+        <v>-0.3754750565465672</v>
       </c>
     </row>
     <row r="46">
